--- a/config_ios提审/xrhb1_config.xlsx
+++ b/config_ios提审/xrhb1_config.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
     <sheet name="task_list|任务列表配置" sheetId="3" r:id="rId2"/>
     <sheet name="task|任务配置" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>id|唯一并且连续</t>
   </si>
@@ -407,22 +407,188 @@
     <t>体验一次红包大转盘</t>
   </si>
   <si>
-    <t>"xycj","panel",</t>
-  </si>
-  <si>
     <t>进阶任务2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"game_MiniGame</t>
+    <t>进阶任务3</t>
+  </si>
+  <si>
+    <t>进阶任务4</t>
+  </si>
+  <si>
+    <t>进阶任务5</t>
+  </si>
+  <si>
+    <t>进阶任务6</t>
+  </si>
+  <si>
+    <t>进阶任务7</t>
+  </si>
+  <si>
+    <t>进阶任务8</t>
+  </si>
+  <si>
+    <t>完成15次匹配场对局</t>
+  </si>
+  <si>
+    <r>
+      <t>6,7,8,9,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,11,12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领0.2福利券</t>
+  </si>
+  <si>
+    <t>完成任务领2000金币</t>
+  </si>
+  <si>
+    <t>完成任务领3000金币</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_image|图标名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领30福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领10000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领20福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领60000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领50元福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领20福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领10福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领60福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领150福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领300福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领600福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务领1800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>game_Fishing3DHall</t>
     </r>
     <r>
       <rPr>
@@ -435,171 +601,57 @@
       </rPr>
       <t>",</t>
     </r>
-  </si>
-  <si>
-    <t>进阶任务3</t>
-  </si>
-  <si>
-    <t>进阶任务4</t>
-  </si>
-  <si>
-    <t>进阶任务5</t>
-  </si>
-  <si>
-    <t>进阶任务6</t>
-  </si>
-  <si>
-    <t>进阶任务7</t>
-  </si>
-  <si>
-    <t>进阶任务8</t>
-  </si>
-  <si>
-    <t>完成15次匹配场对局</t>
-  </si>
-  <si>
-    <r>
-      <t>6,7,8,9,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10,11,12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,13</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领0.2福利券</t>
-  </si>
-  <si>
-    <t>完成任务领2000金币</t>
-  </si>
-  <si>
-    <t>完成任务领3000金币</t>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_image|图标名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领30福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领10000金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领20福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领60000金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领50元福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领20福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领10福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领60福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领150福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领300福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领600福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务领1800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意50条鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意150条鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意250条鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,14,15,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -615,67 +667,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>game_Fishing3DHall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意10条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意50条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意150条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意250条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金200万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金500万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,14,15,16</t>
+      <t>sys_flqcj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","panel",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中开炮30次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -1188,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="15">
         <v>30</v>
@@ -1385,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -1441,19 +1460,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5">
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1470,19 +1489,19 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5">
         <v>10000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -1499,19 +1518,19 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5">
         <v>3</v>
@@ -1528,19 +1547,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5">
         <v>60000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -1560,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5">
         <v>50</v>
@@ -1569,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5">
         <v>5</v>
@@ -1589,16 +1608,16 @@
         <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10">
         <v>20</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>44</v>
+      <c r="G7" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="10">
         <v>6</v>
@@ -1612,22 +1631,22 @@
         <v>21132</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="10">
         <v>7</v>
@@ -1641,22 +1660,22 @@
         <v>21133</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="10">
         <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="10">
         <v>8</v>
@@ -1670,22 +1689,22 @@
         <v>21134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="10">
         <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="10">
         <v>9</v>
@@ -1699,22 +1718,22 @@
         <v>21135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10">
         <v>150</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" s="10">
         <v>10</v>
@@ -1728,22 +1747,22 @@
         <v>21136</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="10">
         <v>300</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="10">
         <v>11</v>
@@ -1757,22 +1776,22 @@
         <v>21137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="10">
         <v>600</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="10">
         <v>12</v>
@@ -1786,22 +1805,22 @@
         <v>21138</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="10">
         <v>1800</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" s="10">
         <v>13</v>
@@ -1821,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5">
         <v>2000</v>
@@ -1830,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -1850,7 +1869,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5">
         <v>0.2</v>
@@ -1859,7 +1878,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -1876,10 +1895,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5">
         <v>3000</v>
@@ -1888,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
@@ -1897,6 +1916,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_ios提审/xrhb1_config.xlsx
+++ b/config_ios提审/xrhb1_config.xlsx
@@ -604,18 +604,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中捕获任意50条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意150条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意250条鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>任意游戏累计赢金50万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -694,8 +682,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中开炮30次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>龙王宝藏中开炮30次</t>
+  </si>
+  <si>
+    <t>龙王宝藏中捕获任意50条鱼</t>
+  </si>
+  <si>
+    <t>龙王宝藏中捕获任意150条鱼</t>
+  </si>
+  <si>
+    <t>龙王宝藏中捕获任意250条鱼</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -1405,7 +1401,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>70</v>
@@ -1489,7 +1485,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>69</v>
@@ -1518,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>56</v>
@@ -1547,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>66</v>
@@ -1614,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>76</v>
@@ -1634,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>67</v>
@@ -1643,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>77</v>
@@ -1663,7 +1659,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>57</v>
@@ -1672,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>71</v>
@@ -1692,7 +1688,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>60</v>
@@ -1701,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>78</v>
@@ -1721,7 +1717,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>61</v>
@@ -1730,7 +1726,7 @@
         <v>150</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>79</v>
@@ -1750,7 +1746,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>62</v>
@@ -1759,7 +1755,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>80</v>
@@ -1779,7 +1775,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>63</v>
@@ -1788,7 +1784,7 @@
         <v>600</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>81</v>
@@ -1808,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>64</v>
@@ -1817,7 +1813,7 @@
         <v>1800</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>82</v>
